--- a/Tarea.xlsx
+++ b/Tarea.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryann\Desktop\ht5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D01804-0F86-4A73-99CC-68908B2F28A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A25F26-ED71-4E2A-8233-87CCCAD53BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{918006D9-4EB0-42B6-9BAA-1A3DFA7E0CA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{918006D9-4EB0-42B6-9BAA-1A3DFA7E0CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="1" r:id="rId1"/>
     <sheet name="Memoria a 200" sheetId="2" r:id="rId2"/>
     <sheet name="6 instrucciones" sheetId="3" r:id="rId3"/>
     <sheet name="2 Procesadores" sheetId="4" r:id="rId4"/>
+    <sheet name="2procesadoresVS 6 instrucciones" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Instrucciones</t>
   </si>
@@ -72,6 +73,12 @@
   </si>
   <si>
     <t>CPU 2</t>
+  </si>
+  <si>
+    <t>6 instrucciones</t>
+  </si>
+  <si>
+    <t>2 Procesadores</t>
   </si>
 </sst>
 </file>
@@ -444,19 +451,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36.776899999999998</c:v>
+                  <c:v>27.535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.638000000000005</c:v>
+                  <c:v>56.758699999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168.767</c:v>
+                  <c:v>129.02699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>272.02999999999997</c:v>
+                  <c:v>203.965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>347.71</c:v>
+                  <c:v>260.49900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,19 +536,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.308</c:v>
+                  <c:v>29.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.82</c:v>
+                  <c:v>66.668999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.79300000000001</c:v>
+                  <c:v>136.9238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.3759</c:v>
+                  <c:v>212.02199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>355.62</c:v>
+                  <c:v>268.08999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,19 +621,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>52.509</c:v>
+                  <c:v>37.948999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.437799999999996</c:v>
+                  <c:v>74.297799999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.834</c:v>
+                  <c:v>143.464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288.12900000000002</c:v>
+                  <c:v>219.38900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>363.49639999999999</c:v>
+                  <c:v>275.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,19 +1105,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36.776899999999998</c:v>
+                  <c:v>27.535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.638000000000005</c:v>
+                  <c:v>56.758699999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168.767</c:v>
+                  <c:v>129.02699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>272.02999999999997</c:v>
+                  <c:v>203.965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>347.71</c:v>
+                  <c:v>260.49900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,19 +1190,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.308</c:v>
+                  <c:v>29.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.82</c:v>
+                  <c:v>66.668999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.79300000000001</c:v>
+                  <c:v>136.9238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.3759</c:v>
+                  <c:v>212.02199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>355.62</c:v>
+                  <c:v>268.08999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,19 +1275,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>52.509</c:v>
+                  <c:v>37.948999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.437799999999996</c:v>
+                  <c:v>74.297799999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.834</c:v>
+                  <c:v>143.464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288.12900000000002</c:v>
+                  <c:v>219.38900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>363.49639999999999</c:v>
+                  <c:v>275.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,19 +1759,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.91</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.037999999999997</c:v>
+                  <c:v>29.457999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.766999999999996</c:v>
+                  <c:v>68.307000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.61179999999999</c:v>
+                  <c:v>109.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174.994</c:v>
+                  <c:v>146.25899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,19 +1844,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.827999999999999</c:v>
+                  <c:v>15.766999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.769300000000001</c:v>
+                  <c:v>34.969000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.403800000000004</c:v>
+                  <c:v>75.462999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.30000000000001</c:v>
+                  <c:v>116.47499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182.78200000000001</c:v>
+                  <c:v>153.767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,19 +1929,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.428999999999998</c:v>
+                  <c:v>20.749700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.377800000000001</c:v>
+                  <c:v>42.256999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.653999999999996</c:v>
+                  <c:v>81.594700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144.96</c:v>
+                  <c:v>122.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188.5214</c:v>
+                  <c:v>159.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,19 +2412,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.329999999999998</c:v>
+                  <c:v>17.260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.172899999999998</c:v>
+                  <c:v>25.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.91</c:v>
+                  <c:v>56.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.19999999999999</c:v>
+                  <c:v>94.313000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>171.31</c:v>
+                  <c:v>122.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2490,19 +2497,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.14</c:v>
+                  <c:v>14.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.061999999999998</c:v>
+                  <c:v>28.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.366</c:v>
+                  <c:v>64.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138.80000000000001</c:v>
+                  <c:v>102.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179.55</c:v>
+                  <c:v>130.64699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,19 +2582,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.8</c:v>
+                  <c:v>18.448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.6</c:v>
+                  <c:v>36.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.2</c:v>
+                  <c:v>71.094999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.04</c:v>
+                  <c:v>108.98699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>186.86</c:v>
+                  <c:v>136.976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5604,8 +5611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FED01E-4973-45ED-88E0-F1515885E97F}">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5634,13 +5641,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>36.776899999999998</v>
+        <v>27.535</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>15.28</v>
+        <v>13.61</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -5651,13 +5658,13 @@
         <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>80.638000000000005</v>
+        <v>56.758699999999997</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>35.475000000000001</v>
+        <v>24.73</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -5668,13 +5675,13 @@
         <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>168.767</v>
+        <v>129.02699999999999</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>76.023399999999995</v>
+        <v>59.77</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -5685,13 +5692,13 @@
         <v>150</v>
       </c>
       <c r="C5" s="1">
-        <v>272.02999999999997</v>
+        <v>203.965</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="3">
-        <v>121.95</v>
+        <v>95.21</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -5699,13 +5706,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="1">
-        <v>347.71</v>
+        <v>260.49900000000002</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
       <c r="E6" s="3">
-        <v>162.97</v>
+        <v>126.49</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5713,13 +5720,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>44.308</v>
+        <v>29.82</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>19.727</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -5727,13 +5734,13 @@
         <v>50</v>
       </c>
       <c r="C8" s="1">
-        <v>90.82</v>
+        <v>66.668999999999997</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>40.712000000000003</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -5741,13 +5748,13 @@
         <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>176.79300000000001</v>
+        <v>136.9238</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>79.33</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -5755,13 +5762,13 @@
         <v>150</v>
       </c>
       <c r="C10" s="1">
-        <v>280.3759</v>
+        <v>212.02199999999999</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>122.84399999999999</v>
+        <v>96.92</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -5769,13 +5776,13 @@
         <v>200</v>
       </c>
       <c r="C11" s="1">
-        <v>355.62</v>
+        <v>268.08999999999997</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
       <c r="E11" s="3">
-        <v>164.27350000000001</v>
+        <v>128.387</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -5783,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>52.509</v>
+        <v>37.948999999999998</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>24.34</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5797,13 +5804,13 @@
         <v>50</v>
       </c>
       <c r="C13" s="1">
-        <v>98.437799999999996</v>
+        <v>74.297799999999995</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>43.03</v>
+        <v>33.520000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -5811,13 +5818,13 @@
         <v>100</v>
       </c>
       <c r="C14" s="1">
-        <v>183.834</v>
+        <v>143.464</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>79.584000000000003</v>
+        <v>64.013000000000005</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -5825,13 +5832,13 @@
         <v>150</v>
       </c>
       <c r="C15" s="1">
-        <v>288.12900000000002</v>
+        <v>219.38900000000001</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>121.38590000000001</v>
+        <v>96.31</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5839,13 +5846,13 @@
         <v>200</v>
       </c>
       <c r="C16" s="5">
-        <v>363.49639999999999</v>
+        <v>275.36</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="6">
-        <v>162.61369999999999</v>
+        <v>127.76</v>
       </c>
     </row>
   </sheetData>
@@ -5859,7 +5866,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5889,13 +5896,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>36.776899999999998</v>
+        <v>27.535</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>15.28</v>
+        <v>13.61</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -5906,13 +5913,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>80.638000000000005</v>
+        <v>56.758699999999997</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>35.475000000000001</v>
+        <v>24.73</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -5923,13 +5930,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>168.767</v>
+        <v>129.02699999999999</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>76.023399999999995</v>
+        <v>59.77</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -5940,13 +5947,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="1">
-        <v>272.02999999999997</v>
+        <v>203.965</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>121.95</v>
+        <v>95.21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5954,13 +5961,13 @@
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>347.71</v>
+        <v>260.49900000000002</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>162.97</v>
+        <v>126.49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5968,13 +5975,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>44.308</v>
+        <v>29.82</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>19.727</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5982,13 +5989,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="1">
-        <v>90.82</v>
+        <v>66.668999999999997</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>40.712000000000003</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5996,13 +6003,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>176.79300000000001</v>
+        <v>136.9238</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>79.33</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6010,13 +6017,13 @@
         <v>150</v>
       </c>
       <c r="B10" s="1">
-        <v>280.3759</v>
+        <v>212.02199999999999</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>122.84399999999999</v>
+        <v>96.92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6024,13 +6031,13 @@
         <v>200</v>
       </c>
       <c r="B11" s="1">
-        <v>355.62</v>
+        <v>268.08999999999997</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>164.27350000000001</v>
+        <v>128.387</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6038,13 +6045,13 @@
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>52.509</v>
+        <v>37.948999999999998</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>24.34</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6052,13 +6059,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="1">
-        <v>98.437799999999996</v>
+        <v>74.297799999999995</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>43.03</v>
+        <v>33.520000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,13 +6073,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>183.834</v>
+        <v>143.464</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>79.584000000000003</v>
+        <v>64.013000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6080,13 +6087,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="1">
-        <v>288.12900000000002</v>
+        <v>219.38900000000001</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>121.38590000000001</v>
+        <v>96.31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6094,13 +6101,13 @@
         <v>200</v>
       </c>
       <c r="B16" s="5">
-        <v>363.49639999999999</v>
+        <v>275.36</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>162.61369999999999</v>
+        <v>127.76</v>
       </c>
     </row>
   </sheetData>
@@ -6114,7 +6121,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6143,13 +6150,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>19.91</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>13.962</v>
+        <v>14.736000000000001</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -6160,13 +6167,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>36.037999999999997</v>
+        <v>29.457999999999998</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>15.468999999999999</v>
+        <v>13.766999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -6177,13 +6184,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>79.766999999999996</v>
+        <v>68.307000000000002</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>38.789000000000001</v>
+        <v>34.335000000000001</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -6194,13 +6201,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="1">
-        <v>131.61179999999999</v>
+        <v>109.13</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>65.558000000000007</v>
+        <v>56.904000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6208,13 +6215,13 @@
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>174.994</v>
+        <v>146.25899999999999</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>88.91</v>
+        <v>76.84</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6222,13 +6229,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>19.827999999999999</v>
+        <v>15.766999999999999</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>8.27</v>
+        <v>7.2969999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6236,13 +6243,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="1">
-        <v>42.769300000000001</v>
+        <v>34.969000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>19.282</v>
+        <v>16.518999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6250,13 +6257,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>87.403800000000004</v>
+        <v>75.462999999999994</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>42.764499999999998</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -6264,13 +6271,13 @@
         <v>150</v>
       </c>
       <c r="B10" s="1">
-        <v>139.30000000000001</v>
+        <v>116.47499999999999</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>69.02</v>
+        <v>60.597000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -6278,13 +6285,13 @@
         <v>200</v>
       </c>
       <c r="B11" s="1">
-        <v>182.78200000000001</v>
+        <v>153.767</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>92.0976</v>
+        <v>80.186999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -6292,13 +6299,13 @@
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>26.428999999999998</v>
+        <v>20.749700000000001</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>11.911</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -6306,13 +6313,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="1">
-        <v>50.377800000000001</v>
+        <v>42.256999999999998</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>23.552</v>
+        <v>20.866</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -6320,13 +6327,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>93.653999999999996</v>
+        <v>81.594700000000003</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>45.618000000000002</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -6334,13 +6341,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="1">
-        <v>144.96</v>
+        <v>122.09</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>71.465999999999994</v>
+        <v>63.08</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6348,13 +6355,13 @@
         <v>200</v>
       </c>
       <c r="B16" s="5">
-        <v>188.5214</v>
+        <v>159.31</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>94.411500000000004</v>
+        <v>82.486999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -6368,7 +6375,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6397,13 +6404,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>20.329999999999998</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>14.45</v>
+        <v>15.259</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -6414,13 +6421,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="1">
-        <v>35.172899999999998</v>
+        <v>25.12</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>58.07</v>
+        <v>12.18</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -6431,13 +6438,13 @@
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>77.91</v>
+        <v>56.84</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>35.22</v>
+        <v>26.09</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -6448,13 +6455,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="1">
-        <v>130.19999999999999</v>
+        <v>94.313000000000002</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>60.14</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6462,13 +6469,13 @@
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>171.31</v>
+        <v>122.95</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>80.83</v>
+        <v>60.53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6476,13 +6483,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>19.14</v>
+        <v>14.36</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>8.02</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6490,13 +6497,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="1">
-        <v>41.061999999999998</v>
+        <v>28.81</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>17.844000000000001</v>
+        <v>12.375999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6504,13 +6511,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>85.366</v>
+        <v>64.89</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>38.299999999999997</v>
+        <v>29.856999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -6518,13 +6525,13 @@
         <v>150</v>
       </c>
       <c r="B10" s="1">
-        <v>138.80000000000001</v>
+        <v>102.37</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>61.63</v>
+        <v>47.53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -6532,13 +6539,13 @@
         <v>200</v>
       </c>
       <c r="B11" s="1">
-        <v>179.55</v>
+        <v>130.64699999999999</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>83.9</v>
+        <v>63.18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -6546,13 +6553,13 @@
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>25.8</v>
+        <v>18.448</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>12.4</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -6560,13 +6567,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="1">
-        <v>49.6</v>
+        <v>36.56</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>22.05</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -6574,13 +6581,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="1">
-        <v>93.2</v>
+        <v>71.094999999999999</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>40.700000000000003</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -6588,13 +6595,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="1">
-        <v>145.04</v>
+        <v>108.98699999999999</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>61.97</v>
+        <v>48.365000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6602,17 +6609,465 @@
         <v>200</v>
       </c>
       <c r="B16" s="5">
-        <v>186.86</v>
+        <v>136.976</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>84.203000000000003</v>
+        <v>64.099999999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2315A322-7783-4C96-88D0-BDF4B64CF9DD}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14.736000000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>15.259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13.766999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25.12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
+        <v>68.307000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34.335000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>56.84</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1">
+        <v>109.13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>56.904000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>150</v>
+      </c>
+      <c r="G5" s="1">
+        <v>94.313000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1">
+        <v>146.25899999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>76.84</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="1">
+        <v>122.95</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>60.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15.766999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.2969999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14.36</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>34.969000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>16.518999999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>28.81</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12.375999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>75.462999999999994</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>64.89</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>29.856999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1">
+        <v>116.47499999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>60.597000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>150</v>
+      </c>
+      <c r="G10" s="1">
+        <v>102.37</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>47.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1">
+        <v>153.767</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>80.186999999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200</v>
+      </c>
+      <c r="G11" s="1">
+        <v>130.64699999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>63.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20.749700000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="F12" s="2">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18.448</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42.256999999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20.866</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>36.56</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1">
+        <v>81.594700000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>41.25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>71.094999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1">
+        <v>122.09</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>63.08</v>
+      </c>
+      <c r="F15" s="2">
+        <v>150</v>
+      </c>
+      <c r="G15" s="1">
+        <v>108.98699999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>48.365000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>200</v>
+      </c>
+      <c r="B16" s="5">
+        <v>159.31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>82.486999999999995</v>
+      </c>
+      <c r="F16" s="4">
+        <v>200</v>
+      </c>
+      <c r="G16" s="5">
+        <v>136.976</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>